--- a/data/trans_camb/P23_10_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_10_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>-6,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-4,5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-2,77</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 4,33</t>
+          <t>-16,63; 3,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 4,7</t>
+          <t>-12,99; 14,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,48; -2,21</t>
+          <t>-19,57; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 6,9</t>
+          <t>-16,33; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -0,44</t>
+          <t>-6,65; 15,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 3,25</t>
+          <t>-7,44; 16,8</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-12,8; -0,07</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,63; 10,48</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-9,57; 5,79</t>
         </is>
       </c>
     </row>
@@ -677,12 +738,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-40,81%</t>
+          <t>-63,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-51,88%</t>
+          <t>-23,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -692,17 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,11%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-74,08%</t>
+          <t>68,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-30,49%</t>
+          <t>14,79%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-80,18%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16,62%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-49,28%</t>
         </is>
       </c>
     </row>
@@ -735,12 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 40,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-85,65; 157,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-82,69; 570,04</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>12,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-3,56</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,2</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,25</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-2,37</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 29,32</t>
+          <t>-0,7; 41,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 3,93</t>
+          <t>-7,0; 6,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,99; -0,67</t>
+          <t>-12,43; 2,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,5; -0,85</t>
+          <t>-11,02; 1,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 10,91</t>
+          <t>-10,93; 1,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 0,51</t>
+          <t>-11,43; 1,11</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 25,55</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,69; 2,69</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 0,9</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>535,92%</t>
+          <t>567,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,6%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-84,66%</t>
+          <t>-51,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-86,5%</t>
+          <t>-69,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>-71,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-64,23%</t>
+          <t>-71,88%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>144,98%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-34,94%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-65,99%</t>
         </is>
       </c>
     </row>
@@ -891,12 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,36; 832,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 73,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-76,82; inf</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 329,99</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-12,32</t>
+          <t>-8,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-15,41</t>
+          <t>-5,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-8,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,99</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,49</t>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,93</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-3,54</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-3,43</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-30,03; 2,61</t>
+          <t>-20,61; 3,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-33,45; -4,12</t>
+          <t>-18,69; 6,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 1,98</t>
+          <t>-21,6; 2,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 1,65</t>
+          <t>-7,07; 5,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 1,08</t>
+          <t>-8,48; 2,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,87; -2,19</t>
+          <t>-7,28; 6,07</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-10,2; 2,19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-9,94; 2,35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-9,99; 2,79</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-57,2%</t>
+          <t>-50,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-71,51%</t>
+          <t>-34,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-40,16%</t>
+          <t>-49,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-44,02%</t>
+          <t>-19,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-53,67%</t>
+          <t>-41,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-65,22%</t>
+          <t>-9,42%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-38,89%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-35,03%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-33,89%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-90,77; 59,45</t>
+          <t>-86,34; 62,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-93,85; -25,83</t>
+          <t>-79,14; 78,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-82,6; 93,3</t>
+          <t>-86,65; 45,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-89,22; 72,3</t>
+          <t>-80,61; 217,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-83,65; 41,16</t>
+          <t>-88,86; 156,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-87,77; -23,94</t>
+          <t>-78,61; 267,57</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-73,13; 43,07</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-72,32; 39,38</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-73,13; 46,03</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-8,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-8,12</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-4,17</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-3,7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-5,5</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 5,59</t>
+          <t>-7,12; 8,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 5,34</t>
+          <t>-8,62; 6,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 1,58</t>
+          <t>-10,27; 5,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 4,57</t>
+          <t>-17,58; -0,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 1,66</t>
+          <t>-14,45; 2,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 2,79</t>
+          <t>-16,89; 0,02</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-10,67; 1,93</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-9,49; 2,31</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-11,28; -0,15</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,27%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,65%</t>
+          <t>-12,7%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-41,22%</t>
+          <t>-33,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-19,78%</t>
+          <t>-57,32%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-28,07%</t>
+          <t>-42,8%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,99%</t>
+          <t>-57,26%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-38,16%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-33,83%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-50,29%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,96; 154,48</t>
+          <t>-73,13; 263,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,69; 181,96</t>
+          <t>-81,67; 226,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-74,79; 27,24</t>
+          <t>-88,23; 200,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-60,8; 61,46</t>
+          <t>-87,14; 10,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-62,39; 31,22</t>
+          <t>-76,85; 36,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,13; 46,05</t>
+          <t>-85,44; 21,64</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-69,91; 33,64</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-66,75; 29,27</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-78,6; 0,63</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>4,71</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,67</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 3,03</t>
+          <t>-11,12; 4,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 10,8</t>
+          <t>-7,49; 10,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 10,29</t>
+          <t>-8,9; 8,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 6,55</t>
+          <t>-3,94; 15,83</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 4,66</t>
+          <t>-6,15; 11,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 6,83</t>
+          <t>-3,95; 16,49</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,6; 6,09</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 7,49</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,51; 8,79</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-44,66%</t>
+          <t>-42,29%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>62,72%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>54,37%</t>
+          <t>-10,44%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>112,99%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>42,04%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>115,59%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>25,09%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>28,67%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-86,57; 173,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-40,32; 338,07</t>
+          <t>-71,72; 413,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-50,2; 409,01</t>
+          <t>-81,45; 410,96</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-68,4; 232,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-54,89; 125,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 200,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-68,52; 233,07</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-56,36; 256,91</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-61,49; 300,36</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-7,45</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-10,4</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-7,94</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-3,0</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 14,71</t>
+          <t>-2,75; 22,09</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 17,55</t>
+          <t>-7,33; 16,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 1,76</t>
+          <t>-10,6; 5,84</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-23,96; -2,16</t>
+          <t>-18,13; 10,07</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 5,08</t>
+          <t>-25,13; 1,06</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 3,69</t>
+          <t>-15,47; 13,26</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; 10,48</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-12,83; 4,46</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-10,67; 8,64</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>113,12%</t>
+          <t>155,86%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>157,7%</t>
+          <t>63,64%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-57,45%</t>
+          <t>-47,58%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-80,25%</t>
+          <t>-33,55%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-17,37%</t>
+          <t>-80,94%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-28,87%</t>
+          <t>-9,65%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>23,73%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-39,05%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-16,78%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-44,2; 857,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 1016,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-91,73; 59,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 26,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-66,56; 103,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-71,17; 79,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-70,85; 309,52</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-90,59; 218,49</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-88,36; 291,53</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-1,85</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 2,59</t>
+          <t>-3,92; 8,32</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 1,09</t>
+          <t>-5,27; 3,69</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,46; -1,12</t>
+          <t>-7,41; -0,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,39; -0,71</t>
+          <t>-6,3; 0,54</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,66; -0,02</t>
+          <t>-6,27; 0,46</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,83; -0,46</t>
+          <t>-5,34; 2,41</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 2,69</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 0,94</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-5,45; 0,16</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-20,24%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-29,99%</t>
+          <t>-11,4%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-47,57%</t>
+          <t>-48,94%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-41,94%</t>
+          <t>-41,25%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-33,88%</t>
+          <t>-36,52%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-35,81%</t>
+          <t>-21,99%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-16,79%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-24,12%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-35,15%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-60,81; 43,68</t>
+          <t>-42,25; 140,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-64,85; 21,38</t>
+          <t>-51,1; 63,62</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-67,28; -15,51</t>
+          <t>-74,69; -1,12</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-63,99; -8,08</t>
+          <t>-67,54; 10,06</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-56,95; 2,19</t>
+          <t>-64,74; 11,53</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-55,87; -5,67</t>
+          <t>-58,2; 45,79</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-45,17; 48,3</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-50,0; 15,31</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-59,08; 3,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
